--- a/excel/일산.xlsx
+++ b/excel/일산.xlsx
@@ -468,39 +468,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>모꼬지</t>
+          <t>보틀앤스틱스</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 강석로 33 대우이안 106호 모꼬지</t>
+          <t>경기 고양시 일산동구 무궁화로141번길 25-9 1층</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['일', '17:00 - 01:00']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0507-1338-9766</t>
+          <t>0507-1408-7467</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>미담화 밤리단길점</t>
+          <t>황제카야</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -510,22 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 대산로 20 메디컬프라자 1층 101호</t>
+          <t>경기 고양시 일산동구 무궁화로141번길 25-9 1층</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '정기휴무 (매주 수요일)'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['일', '16:00 - 24:00']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0507-1384-1424</t>
+          <t>0507-1408-7467</t>
         </is>
       </c>
     </row>
@@ -542,22 +542,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 32-34 라페스타C 1층 126호</t>
+          <t>경기 고양시 일산동구 무궁화로141번길 25-9 1층</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['- 공휴일 전날은 02:00까지 영업합니다.']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0507-1432-3412</t>
+          <t>0507-1408-7467</t>
         </is>
       </c>
     </row>
@@ -574,22 +574,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 무궁화로141번길 25-9 1층</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '정기휴무 (매주 수요일)'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['일', '17:00 - 24:00']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1408-7467</t>
         </is>
       </c>
     </row>
@@ -606,22 +606,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 무궁화로141번길 25-9 1층</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1408-7467</t>
         </is>
       </c>
     </row>
@@ -638,22 +638,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 무궁화로141번길 25-9 1층</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '정기휴무 (매주 수요일)'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['일', '17:00 - 24:00']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1408-7467</t>
         </is>
       </c>
     </row>
@@ -670,22 +670,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 무궁화로141번길 25-9 1층</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1408-7467</t>
         </is>
       </c>
     </row>
@@ -702,125 +702,125 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 대산로11번길 5-20 1층</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '정기휴무 (매주 수요일)'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['일', '17:00 - 24:00']]</t>
+          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '16:00 - 24:00', '22:30 라스트오더'], ['일', '16:00 - 24:00', '22:30 라스트오더'], ['월(7/17)', '제헌절16:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1434-5201</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>노상가는술집</t>
+          <t>이자카야 이로</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 대산로11번길 5-20 1층</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1434-5201</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>이자카야 이로</t>
+          <t>노상가는술집</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 대산로11번길 5-20 1층</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '정기휴무 (매주 수요일)'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['일', '17:00 - 24:00']]</t>
+          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '16:00 - 24:00', '22:30 라스트오더'], ['일', '16:00 - 24:00', '22:30 라스트오더'], ['월(7/17)', '제헌절16:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1434-5201</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>모꼬지</t>
+          <t>보틀앤스틱스</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '07/10 휴무', '07/10 휴무'], ['월(7/10)', '휴무'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['매일', '16:30 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>미담화 밤리단길점</t>
+          <t>황제카야</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -830,22 +830,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '07/10 휴무', '07/10 휴무', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -862,22 +862,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 32-34 라페스타C 1층 126호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['- 공휴일 전날은 02:00까지 영업합니다.']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['매일', '16:30 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0507-1432-3412</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -894,22 +894,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '정기휴무 (매주 수요일)'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['일', '17:00 - 24:00']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -926,22 +926,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 백석로86번길 50 1층</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1362-5484</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더'], ['일', '17:00 - 23:00', '22:00 라스트오더']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더'], ['일', '17:00 - 23:00', '22:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['월', '17:00 - 01:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00'], ['월(7/17)', '제헌절16:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1044,12 +1044,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>노상가는술집</t>
+          <t>이자카야 이로</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['월', '17:00 - 01:00'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 01:00'], ['월(7/17)', '제헌절16:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1076,12 +1076,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>이자카야 이로</t>
+          <t>노상가는술집</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1118,22 +1118,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '07/10 휴무', '07/10 휴무'], ['월(7/10)', '휴무'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['매일', '16:30 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1150,22 +1150,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '07/10 휴무', '07/10 휴무', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1182,22 +1182,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '07/10 휴무', '07/10 휴무'], ['월(7/10)', '휴무'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['매일', '16:30 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1214,22 +1214,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '07/10 휴무', '07/10 휴무', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1246,22 +1246,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '07/10 휴무', '07/10 휴무'], ['월(7/10)', '휴무'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['매일', '16:30 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1278,22 +1278,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '07/10 휴무', '07/10 휴무', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1310,22 +1310,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '07/10 휴무', '07/10 휴무'], ['월(7/10)', '휴무'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['매일', '16:30 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1342,22 +1342,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '07/10 휴무', '07/10 휴무', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1374,22 +1374,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '07/10 휴무', '07/10 휴무'], ['월(7/10)', '휴무'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['매일', '16:30 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1406,34 +1406,34 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '07/10 휴무', '07/10 휴무', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>쉼, 어묵 그리고 한잔 술 백석점</t>
+          <t>화류</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>오뎅,꼬치</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:15에 라스트오더', '1시 15분에 라스트오더'], ['월', '16:30 - 02:00', '01:15 라스트오더'], ['화', '16:30 - 02:00', '01:15 라스트오더'], ['수', '16:30 - 02:00', '01:15 라스트오더'], ['목', '16:30 - 02:00', '01:15 라스트오더'], ['금', '16:30 - 02:00', '01:15 라스트오더'], ['토', '16:30 - 02:00', '01:15 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '01:15에 라스트오더', '1시 15분에 라스트오더'], ['화', '16:30 - 02:00', '01:15 라스트오더'], ['수', '16:30 - 02:00', '01:15 라스트오더'], ['목', '16:30 - 02:00', '01:15 라스트오더'], ['금', '16:30 - 02:00', '01:15 라스트오더'], ['토', '16:30 - 02:00', '01:15 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:30 - 02:00', '01:15 라스트오더']]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1460,12 +1460,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>전류 일산밤리단길점</t>
+          <t>1987래빗</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1492,12 +1492,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>화류</t>
+          <t>쉼, 어묵 그리고 한잔 술 백석점</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>오뎅,꼬치</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:15에 라스트오더', '1시 15분에 라스트오더'], ['월', '16:30 - 02:00', '01:15 라스트오더'], ['화', '16:30 - 02:00', '01:15 라스트오더'], ['수', '16:30 - 02:00', '01:15 라스트오더'], ['목', '16:30 - 02:00', '01:15 라스트오더'], ['금', '16:30 - 02:00', '01:15 라스트오더'], ['토', '16:30 - 02:00', '01:15 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '01:15에 라스트오더', '1시 15분에 라스트오더'], ['화', '16:30 - 02:00', '01:15 라스트오더'], ['수', '16:30 - 02:00', '01:15 라스트오더'], ['목', '16:30 - 02:00', '01:15 라스트오더'], ['금', '16:30 - 02:00', '01:15 라스트오더'], ['토', '16:30 - 02:00', '01:15 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:30 - 02:00', '01:15 라스트오더']]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1524,12 +1524,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>비스트로온</t>
+          <t>레드제플린</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1556,12 +1556,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>범맥주 파주야당점</t>
+          <t>전류 일산밤리단길점</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:15에 라스트오더', '1시 15분에 라스트오더'], ['월', '16:30 - 02:00', '01:15 라스트오더'], ['화', '16:30 - 02:00', '01:15 라스트오더'], ['수', '16:30 - 02:00', '01:15 라스트오더'], ['목', '16:30 - 02:00', '01:15 라스트오더'], ['금', '16:30 - 02:00', '01:15 라스트오더'], ['토', '16:30 - 02:00', '01:15 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '01:15에 라스트오더', '1시 15분에 라스트오더'], ['화', '16:30 - 02:00', '01:15 라스트오더'], ['수', '16:30 - 02:00', '01:15 라스트오더'], ['목', '16:30 - 02:00', '01:15 라스트오더'], ['금', '16:30 - 02:00', '01:15 라스트오더'], ['토', '16:30 - 02:00', '01:15 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:30 - 02:00', '01:15 라스트오더']]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1588,12 +1588,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>지느러미</t>
+          <t>비스트로온</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1620,12 +1620,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>레드제플린</t>
+          <t>복덕주점 밤리단길</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:15에 라스트오더', '1시 15분에 라스트오더'], ['월', '16:30 - 02:00', '01:15 라스트오더'], ['화', '16:30 - 02:00', '01:15 라스트오더'], ['수', '16:30 - 02:00', '01:15 라스트오더'], ['목', '16:30 - 02:00', '01:15 라스트오더'], ['금', '16:30 - 02:00', '01:15 라스트오더'], ['토', '16:30 - 02:00', '01:15 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '01:15에 라스트오더', '1시 15분에 라스트오더'], ['화', '16:30 - 02:00', '01:15 라스트오더'], ['수', '16:30 - 02:00', '01:15 라스트오더'], ['목', '16:30 - 02:00', '01:15 라스트오더'], ['금', '16:30 - 02:00', '01:15 라스트오더'], ['토', '16:30 - 02:00', '01:15 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:30 - 02:00', '01:15 라스트오더']]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1652,12 +1652,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>복덕주점 밤리단길</t>
+          <t>지느러미</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>추억의 길가 포장마차</t>
+          <t>밀회관 파주야당역점</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:15에 라스트오더', '1시 15분에 라스트오더'], ['월', '16:30 - 02:00', '01:15 라스트오더'], ['화', '16:30 - 02:00', '01:15 라스트오더'], ['수', '16:30 - 02:00', '01:15 라스트오더'], ['목', '16:30 - 02:00', '01:15 라스트오더'], ['금', '16:30 - 02:00', '01:15 라스트오더'], ['토', '16:30 - 02:00', '01:15 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '01:15에 라스트오더', '1시 15분에 라스트오더'], ['화', '16:30 - 02:00', '01:15 라스트오더'], ['수', '16:30 - 02:00', '01:15 라스트오더'], ['목', '16:30 - 02:00', '01:15 라스트오더'], ['금', '16:30 - 02:00', '01:15 라스트오더'], ['토', '16:30 - 02:00', '01:15 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:30 - 02:00', '01:15 라스트오더']]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1716,12 +1716,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>밀회관 파주야당역점</t>
+          <t>임가주방 벨라시타점</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1748,295 +1748,295 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>역전할머니맥주 일산탄현점</t>
+          <t>1943 일산점</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 36 1층 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['매일', '16:00 - 04:00']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>031-922-7656</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>노노스탄테</t>
+          <t>푸른술집할라 일산라페스타점</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 36 1층 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>031-922-7656</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>청담이상 일산라페스타점</t>
+          <t>노노스탄테</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 36 1층 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['매일', '16:00 - 04:00']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>031-922-7656</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>등대 숯불꼬치</t>
+          <t>청담이상 일산라페스타점</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>오뎅,꼬치</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 36 1층 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>031-922-7656</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>푸른술집할라 일산라페스타점</t>
+          <t>산카이 대화역점</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 36 1층 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['매일', '16:00 - 04:00']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>031-922-7656</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>저스트밤</t>
+          <t>설맥 일산식사점</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 36 1층 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>031-922-7656</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>울룰루펍</t>
+          <t>산카이 일산본점</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 36 1층 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['매일', '16:00 - 04:00']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>031-922-7656</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>엉클39</t>
+          <t>데미안</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 36 1층 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>031-922-7656</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>골뱅이 일산</t>
+          <t>역전할머니맥주 일산웨스턴돔점</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 중앙로1261번길 59 105호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '16:00 - 24:00', '23:00 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0507-1374-2062</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>설맥 일산식사점</t>
+          <t>하루비어 탄현위브더제니스점</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2046,22 +2046,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 위시티1로 6-31 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '17:00 - 01:00']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>031-967-6864</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
